--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3137884.896648394</v>
+        <v>3137498.186246593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644351</v>
+        <v>247834.3978644293</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736546</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7670493.908959609</v>
+        <v>7670493.908959611</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168.7407568354729</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>298.3583182544193</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -786,22 +786,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>224.8475999404418</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>136.8662720248738</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1125703724763</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>66.95154967741719</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>110.2177667777754</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>106.8151638219547</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1032,13 +1032,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>60.32590131726501</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>179.7341308901463</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>51.30197541810825</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.88606849311432</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>143.3910235355326</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>33.93645047002001</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1269,13 +1269,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>161.8832377500051</v>
       </c>
       <c r="X9" t="n">
-        <v>127.2735794774786</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65.79123926981569</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>231.4339799530635</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
@@ -1382,10 +1382,10 @@
         <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>203.4748694808023</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
         <v>57.65886129508323</v>
@@ -1421,22 +1421,22 @@
         <v>71.92652010774086</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.13836381171785</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>57.87084530197234</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.684255572312</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.66555961684</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>184.0440463562418</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508324</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774087</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>143.5064555977696</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1692,10 +1692,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>57.87084530196705</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>113.3584379847389</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932732</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808564</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627195</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299668</v>
+        <v>219.0992794299672</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876486</v>
+        <v>207.1105963876489</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321765</v>
+        <v>198.0919004321769</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020821</v>
+        <v>219.8340380020825</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900592</v>
+        <v>239.0058540900596</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874818</v>
+        <v>240.9391219874821</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657917</v>
+        <v>158.4892369657921</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211041982861</v>
+        <v>0.0852021104201981</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307746</v>
+        <v>14.35286092307783</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342682</v>
+        <v>51.11153211342719</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027378</v>
+        <v>81.33265823027415</v>
       </c>
       <c r="V17" t="n">
-        <v>162.6056566701459</v>
+        <v>162.6056566701463</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481029</v>
+        <v>187.9057561481032</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808513</v>
+        <v>207.2060143808498</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770482</v>
+        <v>218.6026121770486</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>107.4527928920627</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1977,7 +1977,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>196.3214223927823</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.7159903046639</v>
+        <v>10.71599030466427</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747719</v>
+        <v>40.56884027747756</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960583</v>
+        <v>59.8433389596062</v>
       </c>
       <c r="U19" t="n">
-        <v>113.314512422919</v>
+        <v>113.3145124229194</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428949</v>
+        <v>87.12412670428986</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749031</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070587</v>
+        <v>57.93611477070624</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677356</v>
+        <v>48.81098252677393</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.0992794299668</v>
+        <v>219.0992794299673</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876486</v>
+        <v>207.110596387649</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321765</v>
+        <v>198.091900432177</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020821</v>
+        <v>219.8340380020825</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900592</v>
+        <v>239.0058540900597</v>
       </c>
       <c r="G20" t="n">
-        <v>240.9391219874818</v>
+        <v>240.9391219874822</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657917</v>
+        <v>158.4892369657921</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041982861</v>
+        <v>0.08520211041937387</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307746</v>
+        <v>14.35286092307791</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342682</v>
+        <v>51.11153211342727</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027378</v>
+        <v>81.33265823027423</v>
       </c>
       <c r="V20" t="n">
-        <v>162.6056566701459</v>
+        <v>162.6056566701464</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9057561481029</v>
+        <v>187.9057561481033</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808495</v>
+        <v>207.2060143808499</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770482</v>
+        <v>218.6026121770487</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>113.3584379847389</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>151.2158255372919</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.7159903046639</v>
+        <v>10.71599030466436</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747719</v>
+        <v>40.56884027747765</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960583</v>
+        <v>59.84333895960629</v>
       </c>
       <c r="U22" t="n">
-        <v>113.314512422919</v>
+        <v>113.3145124229194</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428949</v>
+        <v>87.12412670428995</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749032</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070587</v>
+        <v>57.93611477070633</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677356</v>
+        <v>48.81098252677401</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.0992794299668</v>
+        <v>219.0992794299673</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876486</v>
+        <v>207.110596387649</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321765</v>
+        <v>198.091900432177</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020821</v>
+        <v>219.8340380020825</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900592</v>
+        <v>239.0058540900597</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9391219874818</v>
+        <v>240.9391219874822</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657917</v>
+        <v>158.4892369657921</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041982861</v>
+        <v>0.08520211042028336</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307746</v>
+        <v>14.35286092307791</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342682</v>
+        <v>51.11153211342727</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027378</v>
+        <v>81.33265823027423</v>
       </c>
       <c r="V23" t="n">
-        <v>162.6056566701459</v>
+        <v>162.6056566701464</v>
       </c>
       <c r="W23" t="n">
-        <v>187.9057561481029</v>
+        <v>187.9057561481033</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808495</v>
+        <v>207.2060143808499</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770482</v>
+        <v>218.6026121770487</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043522315</v>
       </c>
       <c r="H24" t="n">
-        <v>11.25159433703675</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.7159903046639</v>
+        <v>10.71599030466436</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747719</v>
+        <v>40.56884027747765</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960583</v>
+        <v>59.84333895960629</v>
       </c>
       <c r="U25" t="n">
-        <v>113.314512422919</v>
+        <v>113.3145124229194</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428949</v>
+        <v>87.12412670428995</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749032</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070587</v>
+        <v>57.93611477070633</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677356</v>
+        <v>48.81098252677401</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>271.8267233518976</v>
       </c>
       <c r="C26" t="n">
-        <v>259.8380403095796</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>189.2417146227454</v>
+        <v>252.1306345456036</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.92652010774088</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932733</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472781</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.1110087323062</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808565</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627196</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.8003856376198</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031022</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355688</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214062</v>
       </c>
       <c r="T31" t="n">
-        <v>117.4169981442692</v>
+        <v>117.4169981442693</v>
       </c>
       <c r="U31" t="n">
         <v>170.8881716075824</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.4524160856739</v>
+        <v>248.4524160856742</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433557</v>
+        <v>236.4637330433559</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878839</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577892</v>
+        <v>249.1871746577895</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457666</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431889</v>
+        <v>270.2922586431891</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214988</v>
+        <v>187.8423736214991</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612695</v>
+        <v>29.4383387661272</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878458</v>
+        <v>43.70599757878483</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913394</v>
+        <v>80.46466876913419</v>
       </c>
       <c r="U32" t="n">
-        <v>110.6857948859809</v>
+        <v>110.6857948859812</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258531</v>
+        <v>191.9587933258533</v>
       </c>
       <c r="W32" t="n">
-        <v>217.25889280381</v>
+        <v>217.2588928038102</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365566</v>
+        <v>236.5591510365568</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327553</v>
+        <v>247.9557488327556</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326551</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133629</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037102</v>
+        <v>40.06912696037128</v>
       </c>
       <c r="C34" t="n">
-        <v>26.2691218057715</v>
+        <v>26.26912180577176</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349894</v>
+        <v>9.89048620335015</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129343</v>
+        <v>8.838236059129599</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315652</v>
+        <v>9.305160387315908</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866349</v>
+        <v>25.57986310866374</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135391</v>
+        <v>16.12823073135417</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183257</v>
+        <v>1.110325916183513</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600567</v>
+        <v>6.375875534600823</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318431</v>
+        <v>69.92197693318457</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531295</v>
+        <v>89.1964756153132</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786261</v>
+        <v>142.6676490786264</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599966</v>
+        <v>116.4772633599969</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306099</v>
+        <v>141.6441494306101</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641299</v>
+        <v>87.28925142641324</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248068</v>
+        <v>78.16411918248093</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235483</v>
+        <v>229.7437828235484</v>
       </c>
       <c r="C41" t="n">
-        <v>217.75509978123</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D41" t="n">
-        <v>208.736403825758</v>
+        <v>208.7364038257581</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956635</v>
+        <v>154.6620892521695</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6503574836407</v>
+        <v>249.6503574836408</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810632</v>
+        <v>251.5836253810633</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1337403593731</v>
+        <v>169.1337403593733</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400129</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665892</v>
+        <v>24.99736431665903</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.75603550700839</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385524</v>
+        <v>91.97716162385535</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637274</v>
+        <v>173.2501600637275</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416843</v>
+        <v>198.5502595416844</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8505177744309</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.4569934301442</v>
+        <v>229.2471155706298</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824536</v>
+        <v>21.36049369824548</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645846</v>
+        <v>7.56048854364596</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.87122984653783</v>
+        <v>6.871229846537943</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105865</v>
+        <v>51.21334367105877</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318729</v>
+        <v>70.4878423531874</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165005</v>
+        <v>123.9590158165006</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787095</v>
+        <v>97.76863009787107</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684842</v>
+        <v>122.9355161684843</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428733</v>
+        <v>68.58061816428744</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035502</v>
+        <v>59.45548592035513</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>143.1976251760547</v>
+        <v>229.7437828235484</v>
       </c>
       <c r="C44" t="n">
-        <v>217.75509978123</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D44" t="n">
-        <v>208.736403825758</v>
+        <v>208.7364038257581</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4785413956635</v>
+        <v>230.4785413956637</v>
       </c>
       <c r="F44" t="n">
-        <v>249.6503574836407</v>
+        <v>249.6503574836408</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810632</v>
+        <v>165.037467733568</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593731</v>
+        <v>169.1337403593733</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400129</v>
+        <v>10.7297055040014</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665892</v>
+        <v>24.99736431665903</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700828</v>
+        <v>61.75603550700839</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385524</v>
+        <v>91.97716162385535</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637274</v>
+        <v>173.2501600637275</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416843</v>
+        <v>198.5502595416844</v>
       </c>
       <c r="X44" t="n">
-        <v>217.8505177744309</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706297</v>
+        <v>229.2471155706298</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824536</v>
+        <v>21.36049369824548</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543645846</v>
+        <v>7.56048854364596</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.87122984653783</v>
+        <v>6.871229846537943</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105865</v>
+        <v>51.21334367105877</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318729</v>
+        <v>70.4878423531874</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165005</v>
+        <v>123.9590158165006</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787095</v>
+        <v>97.76863009787107</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684842</v>
+        <v>122.9355161684843</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428733</v>
+        <v>68.58061816428744</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035502</v>
+        <v>59.45548592035513</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.2977780998384</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="C2" t="n">
-        <v>565.2977780998384</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="D2" t="n">
-        <v>565.2977780998384</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="E2" t="n">
-        <v>394.8525691751183</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="F2" t="n">
-        <v>384.7417825256927</v>
+        <v>224.7377069142061</v>
       </c>
       <c r="G2" t="n">
-        <v>372.6782000202847</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="H2" t="n">
-        <v>39.85692561759402</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
@@ -4334,46 +4334,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8812150201287</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M2" t="n">
         <v>1093.120381273217</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.451739960932</v>
+        <v>1365.25254626428</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.456324433766</v>
+        <v>1670.257130737114</v>
       </c>
       <c r="P2" t="n">
-        <v>1992.846280879701</v>
+        <v>1898.414027193167</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375555</v>
+        <v>1902.207994375558</v>
       </c>
       <c r="S2" t="n">
-        <v>1902.207994375555</v>
+        <v>1714.979019005912</v>
       </c>
       <c r="T2" t="n">
-        <v>1677.849048106566</v>
+        <v>1490.620072736923</v>
       </c>
       <c r="U2" t="n">
-        <v>1677.849048106566</v>
+        <v>1235.734736450917</v>
       </c>
       <c r="V2" t="n">
-        <v>1340.869774002507</v>
+        <v>898.7554623468582</v>
       </c>
       <c r="W2" t="n">
-        <v>1340.869774002507</v>
+        <v>536.2205322044592</v>
       </c>
       <c r="X2" t="n">
-        <v>958.8396335240004</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="Y2" t="n">
-        <v>565.2977780998384</v>
+        <v>234.8484935636317</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>543.4753187464919</v>
+        <v>784.4758880695124</v>
       </c>
       <c r="C3" t="n">
-        <v>381.7716459874466</v>
+        <v>622.7722153104671</v>
       </c>
       <c r="D3" t="n">
-        <v>242.9330089776587</v>
+        <v>483.9335783006792</v>
       </c>
       <c r="E3" t="n">
-        <v>242.9330089776587</v>
+        <v>336.9055683575505</v>
       </c>
       <c r="F3" t="n">
-        <v>108.239210927533</v>
+        <v>336.9055683575505</v>
       </c>
       <c r="G3" t="n">
-        <v>108.239210927533</v>
+        <v>208.1770683808351</v>
       </c>
       <c r="H3" t="n">
-        <v>108.239210927533</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="J3" t="n">
-        <v>39.85692561759402</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>269.3474781777827</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L3" t="n">
-        <v>635.1693233478984</v>
+        <v>695.4234698810046</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.202676858125</v>
+        <v>695.4234698810046</v>
       </c>
       <c r="N3" t="n">
-        <v>1600.64633009555</v>
+        <v>1140.778781034262</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.846280879701</v>
+        <v>1532.978731818413</v>
       </c>
       <c r="P3" t="n">
-        <v>1992.846280879701</v>
+        <v>1835.07465109411</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974647</v>
+        <v>1933.06201197465</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987387</v>
+        <v>1933.06201197465</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.262524987387</v>
+        <v>1744.376908140635</v>
       </c>
       <c r="U3" t="n">
-        <v>1561.767732585697</v>
+        <v>1744.376908140635</v>
       </c>
       <c r="V3" t="n">
-        <v>1334.648944767069</v>
+        <v>1515.981285588969</v>
       </c>
       <c r="W3" t="n">
-        <v>1093.333076000379</v>
+        <v>1274.665416822279</v>
       </c>
       <c r="X3" t="n">
-        <v>895.4160878781739</v>
+        <v>1136.416657201194</v>
       </c>
       <c r="Y3" t="n">
-        <v>702.8947615277527</v>
+        <v>943.8953308507732</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="C4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="D4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="E4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="F4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="G4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="H4" t="n">
-        <v>179.3645724584792</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223743</v>
+        <v>73.4611133622375</v>
       </c>
       <c r="L4" t="n">
-        <v>174.0681927624969</v>
+        <v>174.068192762497</v>
       </c>
       <c r="M4" t="n">
         <v>292.0616988900987</v>
@@ -4501,7 +4501,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P4" t="n">
         <v>571.9161708635265</v>
@@ -4519,19 +4519,19 @@
         <v>338.7372176792054</v>
       </c>
       <c r="U4" t="n">
-        <v>338.7372176792054</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="V4" t="n">
-        <v>338.7372176792054</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="W4" t="n">
-        <v>338.7372176792054</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="X4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.7372176792054</v>
+        <v>39.85692561759409</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1332.948878527402</v>
+        <v>629.6342134575249</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.948878527402</v>
+        <v>629.6342134575249</v>
       </c>
       <c r="D5" t="n">
-        <v>960.1249137546254</v>
+        <v>629.6342134575249</v>
       </c>
       <c r="E5" t="n">
-        <v>565.3391938607322</v>
+        <v>234.8484935636317</v>
       </c>
       <c r="F5" t="n">
-        <v>151.1880031709025</v>
+        <v>224.7377069142061</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759402</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759402</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="J5" t="n">
-        <v>111.8554698903997</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="K5" t="n">
-        <v>351.9958419351825</v>
+        <v>279.9972976623769</v>
       </c>
       <c r="L5" t="n">
-        <v>699.8812150201287</v>
+        <v>627.8826707473231</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.120381273217</v>
+        <v>1021.121837000411</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264277</v>
+        <v>1399.453195688127</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737111</v>
+        <v>1670.257130737117</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193164</v>
+        <v>1898.41402719317</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879707</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375555</v>
+        <v>1992.846280879707</v>
       </c>
       <c r="S5" t="n">
-        <v>1714.979019005908</v>
+        <v>1992.846280879707</v>
       </c>
       <c r="T5" t="n">
-        <v>1714.979019005908</v>
+        <v>1768.487334610718</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.979019005908</v>
+        <v>1513.601998324712</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.979019005908</v>
+        <v>1513.601998324712</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.979019005908</v>
+        <v>1513.601998324712</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.948878527402</v>
+        <v>1131.571857846205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1332.948878527402</v>
+        <v>1023.677752975544</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.8807411398803</v>
+        <v>680.3931916565482</v>
       </c>
       <c r="C6" t="n">
-        <v>208.177068380835</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="D6" t="n">
-        <v>208.177068380835</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="E6" t="n">
-        <v>208.177068380835</v>
+        <v>371.6615089543742</v>
       </c>
       <c r="F6" t="n">
-        <v>208.177068380835</v>
+        <v>236.9677109042486</v>
       </c>
       <c r="G6" t="n">
-        <v>208.177068380835</v>
+        <v>108.2392109275332</v>
       </c>
       <c r="H6" t="n">
-        <v>108.239210927533</v>
+        <v>108.2392109275332</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1110721507002</v>
+        <v>100.1110721507003</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6016247108888</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810044</v>
+        <v>647.5493265165369</v>
       </c>
       <c r="M6" t="n">
-        <v>695.4234698810044</v>
+        <v>647.5493265165369</v>
       </c>
       <c r="N6" t="n">
-        <v>1188.65292439873</v>
+        <v>1140.778781034264</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.852875182881</v>
+        <v>1532.978731818415</v>
       </c>
       <c r="P6" t="n">
-        <v>1882.948794458579</v>
+        <v>1835.074651094112</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879701</v>
+        <v>1992.846280879707</v>
       </c>
       <c r="R6" t="n">
-        <v>1933.062011974647</v>
+        <v>1933.062011974652</v>
       </c>
       <c r="S6" t="n">
-        <v>1780.262524987387</v>
+        <v>1780.262524987393</v>
       </c>
       <c r="T6" t="n">
-        <v>1591.577421153372</v>
+        <v>1591.577421153378</v>
       </c>
       <c r="U6" t="n">
-        <v>1373.082628751682</v>
+        <v>1373.082628751688</v>
       </c>
       <c r="V6" t="n">
-        <v>1144.687006200016</v>
+        <v>1312.147374895865</v>
       </c>
       <c r="W6" t="n">
-        <v>903.3711374333265</v>
+        <v>1070.831506129175</v>
       </c>
       <c r="X6" t="n">
-        <v>721.8215102715625</v>
+        <v>872.9145180069694</v>
       </c>
       <c r="Y6" t="n">
-        <v>529.3001839211413</v>
+        <v>680.3931916565482</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.3608021791467</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="C7" t="n">
-        <v>388.3608021791467</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="D7" t="n">
-        <v>388.3608021791467</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5406249891384</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="F7" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="G7" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="H7" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759402</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223743</v>
+        <v>73.46111336223754</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0681927624969</v>
+        <v>174.0681927624971</v>
       </c>
       <c r="M7" t="n">
-        <v>292.0616988900987</v>
+        <v>292.0616988900988</v>
       </c>
       <c r="N7" t="n">
-        <v>410.4840406396991</v>
+        <v>410.4840406396992</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P7" t="n">
-        <v>571.9161708635265</v>
+        <v>571.9161708635266</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.9161708635265</v>
+        <v>533.3788295172156</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9161708635265</v>
+        <v>514.301992655484</v>
       </c>
       <c r="S7" t="n">
-        <v>571.9161708635265</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="T7" t="n">
-        <v>571.9161708635265</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="U7" t="n">
-        <v>571.9161708635265</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="V7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="W7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="X7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759414</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759414</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>613.078447009096</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="C8" t="n">
-        <v>613.078447009096</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="D8" t="n">
-        <v>613.078447009096</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E8" t="n">
-        <v>613.078447009096</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F8" t="n">
-        <v>602.9676603596704</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>186.8636738138584</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>186.8636738138584</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1729.954288056892</v>
       </c>
       <c r="W8" t="n">
-        <v>1007.121986527115</v>
+        <v>1367.419357914494</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.121986527115</v>
+        <v>1367.419357914494</v>
       </c>
       <c r="Y8" t="n">
-        <v>1007.121986527115</v>
+        <v>973.8775024903316</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759.6333438441981</v>
+        <v>539.6773511566869</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>377.9736783976416</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4917,16 +4917,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1481.449152931943</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1240.133284165252</v>
+        <v>1089.535108410574</v>
       </c>
       <c r="X9" t="n">
-        <v>1111.57411297588</v>
+        <v>891.6181202883689</v>
       </c>
       <c r="Y9" t="n">
-        <v>919.052786625459</v>
+        <v>699.0967939379477</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>507.6277041048936</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>355.1470491306707</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4993,19 +4993,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1720.283769581168</v>
+        <v>1139.636709239167</v>
       </c>
       <c r="C11" t="n">
-        <v>1452.925935669741</v>
+        <v>1139.636709239167</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.677895652731</v>
+        <v>905.8650123168806</v>
       </c>
       <c r="E11" t="n">
-        <v>914.4681005146044</v>
+        <v>625.6552171787538</v>
       </c>
       <c r="F11" t="n">
-        <v>614.8928345805413</v>
+        <v>326.0799512446905</v>
       </c>
       <c r="G11" t="n">
-        <v>313.3647727904956</v>
+        <v>326.0799512446905</v>
       </c>
       <c r="H11" t="n">
-        <v>107.834601597766</v>
+        <v>107.8346015977662</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J11" t="n">
-        <v>233.8877356882607</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K11" t="n">
-        <v>474.0281077330435</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L11" t="n">
-        <v>821.9134808179897</v>
+        <v>821.9134808179898</v>
       </c>
       <c r="M11" t="n">
-        <v>1225.688277856616</v>
+        <v>1249.149557107034</v>
       </c>
       <c r="N11" t="n">
-        <v>1604.019636544332</v>
+        <v>1739.776779647877</v>
       </c>
       <c r="O11" t="n">
-        <v>2021.320084870292</v>
+        <v>2044.781364120711</v>
       </c>
       <c r="P11" t="n">
-        <v>2361.772845179472</v>
+        <v>2272.938260576764</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866009</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S11" t="n">
-        <v>2407.013327502543</v>
+        <v>2407.013327502548</v>
       </c>
       <c r="T11" t="n">
-        <v>2407.013327502543</v>
+        <v>2297.230305989325</v>
       </c>
       <c r="U11" t="n">
-        <v>2266.703915972304</v>
+        <v>2156.920894459086</v>
       </c>
       <c r="V11" t="n">
-        <v>2266.703915972304</v>
+        <v>1934.517545110793</v>
       </c>
       <c r="W11" t="n">
-        <v>2266.703915972304</v>
+        <v>1686.55853972416</v>
       </c>
       <c r="X11" t="n">
-        <v>1999.249700249563</v>
+        <v>1419.10432400142</v>
       </c>
       <c r="Y11" t="n">
-        <v>1720.283769581168</v>
+        <v>1419.10432400142</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161654</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571201</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473321</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524105</v>
+        <v>481.3357683524106</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022848</v>
+        <v>346.6419703022849</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>217.9134703255695</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722674</v>
+        <v>117.9756128722676</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J12" t="n">
-        <v>109.8474740954346</v>
+        <v>109.8474740954347</v>
       </c>
       <c r="K12" t="n">
-        <v>265.4780334675158</v>
+        <v>339.3380266556234</v>
       </c>
       <c r="L12" t="n">
-        <v>631.2998786376314</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.333232147858</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N12" t="n">
-        <v>1627.59887827098</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2019.798829055131</v>
+        <v>2019.798829055136</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.894748330828</v>
+        <v>2321.894748330833</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R12" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211373</v>
       </c>
       <c r="S12" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T12" t="n">
-        <v>2078.397518390093</v>
+        <v>2078.397518390099</v>
       </c>
       <c r="U12" t="n">
-        <v>1859.902725988404</v>
+        <v>1859.902725988409</v>
       </c>
       <c r="V12" t="n">
-        <v>1631.507103436737</v>
+        <v>1631.507103436743</v>
       </c>
       <c r="W12" t="n">
-        <v>1390.191234670047</v>
+        <v>1390.191234670053</v>
       </c>
       <c r="X12" t="n">
-        <v>1192.274246547842</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.7529201974208</v>
+        <v>999.7529201974263</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456224</v>
+        <v>347.2348244456226</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630691</v>
+        <v>292.1947796630693</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465983</v>
+        <v>253.6988112465984</v>
       </c>
       <c r="E13" t="n">
         <v>216.2657217636835</v>
@@ -5188,37 +5188,37 @@
         <v>178.360991545227</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688433</v>
+        <v>124.0171676688434</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388351</v>
+        <v>79.22044720388362</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774859</v>
+        <v>103.0270918774856</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752559</v>
+        <v>248.9271434752557</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286421</v>
+        <v>461.8300867286418</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093704</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120978</v>
       </c>
       <c r="O13" t="n">
         <v>1133.597172660914</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.861520242178</v>
+        <v>1308.861520242179</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.386935841785</v>
+        <v>1383.386935841786</v>
       </c>
       <c r="R13" t="n">
         <v>1348.44107921193</v>
@@ -5227,22 +5227,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.704212942829</v>
+        <v>1130.70421294283</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876952</v>
+        <v>958.0898981876959</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018842</v>
+        <v>811.9305185018849</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750499</v>
+        <v>640.3500417750504</v>
       </c>
       <c r="X13" t="n">
         <v>523.6735024261924</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742359</v>
+        <v>416.214268374236</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1732.998948035362</v>
+        <v>860.6707785707722</v>
       </c>
       <c r="C14" t="n">
-        <v>1465.641114123936</v>
+        <v>593.3129446593464</v>
       </c>
       <c r="D14" t="n">
-        <v>1207.393074106926</v>
+        <v>593.3129446593464</v>
       </c>
       <c r="E14" t="n">
-        <v>927.1832789687994</v>
+        <v>593.3129446593464</v>
       </c>
       <c r="F14" t="n">
-        <v>627.6080130347361</v>
+        <v>293.7376787252831</v>
       </c>
       <c r="G14" t="n">
-        <v>326.0799512446904</v>
+        <v>293.7376787252831</v>
       </c>
       <c r="H14" t="n">
         <v>107.8346015977661</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K14" t="n">
-        <v>361.7322438799168</v>
+        <v>474.0281077330437</v>
       </c>
       <c r="L14" t="n">
-        <v>821.9134808179897</v>
+        <v>821.9134808179899</v>
       </c>
       <c r="M14" t="n">
-        <v>1215.152647071078</v>
+        <v>1249.149557107034</v>
       </c>
       <c r="N14" t="n">
-        <v>1705.77986961192</v>
+        <v>1627.48091579475</v>
       </c>
       <c r="O14" t="n">
-        <v>2123.08031793788</v>
+        <v>1932.485500267584</v>
       </c>
       <c r="P14" t="n">
-        <v>2351.237214393934</v>
+        <v>2272.938260576764</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866009</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S14" t="n">
-        <v>2407.013327502542</v>
+        <v>2407.013327502548</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.23030598932</v>
+        <v>2297.230305989325</v>
       </c>
       <c r="U14" t="n">
-        <v>2156.92089445908</v>
+        <v>2156.920894459086</v>
       </c>
       <c r="V14" t="n">
-        <v>2156.92089445908</v>
+        <v>1934.517545110793</v>
       </c>
       <c r="W14" t="n">
-        <v>2156.92089445908</v>
+        <v>1686.558539724161</v>
       </c>
       <c r="X14" t="n">
-        <v>2011.964878703758</v>
+        <v>1419.104324001421</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.998948035362</v>
+        <v>1140.138393333025</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>840.3334774161599</v>
+        <v>840.3334774161654</v>
       </c>
       <c r="C15" t="n">
-        <v>678.6298046571146</v>
+        <v>678.6298046571201</v>
       </c>
       <c r="D15" t="n">
-        <v>539.7911676473267</v>
+        <v>539.7911676473321</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524105</v>
+        <v>392.7631577042034</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022848</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722674</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J15" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4780334675158</v>
+        <v>279.0838801225172</v>
       </c>
       <c r="L15" t="n">
-        <v>631.2998786376314</v>
+        <v>644.9057252926328</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.333232147858</v>
+        <v>1116.333232147863</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.59887827098</v>
+        <v>1627.598878270985</v>
       </c>
       <c r="O15" t="n">
-        <v>2019.798829055131</v>
+        <v>2019.798829055136</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.894748330828</v>
+        <v>2321.894748330833</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211373</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T15" t="n">
-        <v>2078.397518390093</v>
+        <v>2078.397518390099</v>
       </c>
       <c r="U15" t="n">
-        <v>1859.902725988404</v>
+        <v>1859.902725988409</v>
       </c>
       <c r="V15" t="n">
-        <v>1631.507103436737</v>
+        <v>1631.507103436743</v>
       </c>
       <c r="W15" t="n">
-        <v>1390.191234670047</v>
+        <v>1390.191234670053</v>
       </c>
       <c r="X15" t="n">
-        <v>1192.274246547842</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.7529201974208</v>
+        <v>999.7529201974263</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456225</v>
+        <v>347.2348244456227</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630692</v>
+        <v>292.1947796630694</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465983</v>
+        <v>253.6988112465987</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636835</v>
+        <v>216.2657217636839</v>
       </c>
       <c r="F16" t="n">
-        <v>178.360991545227</v>
+        <v>178.3609915452272</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688433</v>
+        <v>124.0171676688434</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388354</v>
+        <v>79.22044720388362</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774857</v>
+        <v>103.0270918774859</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752558</v>
+        <v>248.927143475256</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8300867286419</v>
+        <v>461.8300867286422</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093703</v>
+        <v>692.1194567093706</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120979</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660914</v>
@@ -5458,10 +5458,10 @@
         <v>1383.386935841786</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.441079211931</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371385</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
         <v>1130.70421294283</v>
@@ -5473,13 +5473,13 @@
         <v>811.930518501885</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750504</v>
+        <v>640.3500417750505</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261925</v>
+        <v>523.6735024261927</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.214268374236</v>
+        <v>416.2142683742362</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951884</v>
+        <v>1325.912468951888</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338097</v>
+        <v>1116.709846338101</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187268</v>
+        <v>916.6170176187296</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782398</v>
+        <v>694.5624337782423</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418165</v>
+        <v>453.1423791418184</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494108</v>
+        <v>209.7695286494122</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012624</v>
+        <v>49.67939030012673</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K17" t="n">
-        <v>361.7322438799168</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L17" t="n">
         <v>709.6176169648631</v>
@@ -5528,37 +5528,37 @@
         <v>1650.48192835161</v>
       </c>
       <c r="O17" t="n">
-        <v>1955.486512824444</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P17" t="n">
-        <v>2352.937195726441</v>
+        <v>2385.23412442989</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800187</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.540728584599</v>
+        <v>2413.540728584604</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528352004</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301347</v>
+        <v>2167.138390301352</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212359</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787252</v>
+        <v>1768.035591787258</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416497</v>
+        <v>1547.224872416501</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>860.5238027544334</v>
+        <v>840.3334774161654</v>
       </c>
       <c r="C18" t="n">
-        <v>698.8201299953881</v>
+        <v>678.6298046571201</v>
       </c>
       <c r="D18" t="n">
-        <v>559.9814929856002</v>
+        <v>539.7911676473321</v>
       </c>
       <c r="E18" t="n">
-        <v>412.9534830424715</v>
+        <v>392.7631577042034</v>
       </c>
       <c r="F18" t="n">
-        <v>278.2596849923458</v>
+        <v>258.0693596540777</v>
       </c>
       <c r="G18" t="n">
-        <v>149.5311850156304</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H18" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J18" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0838801225171</v>
+        <v>279.0838801225172</v>
       </c>
       <c r="L18" t="n">
-        <v>644.9057252926327</v>
+        <v>644.9057252926328</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.939078802859</v>
+        <v>1116.333232147863</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.59887827098</v>
+        <v>1627.598878270985</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055131</v>
+        <v>2019.798829055136</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330828</v>
+        <v>2321.894748330833</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211373</v>
       </c>
       <c r="S18" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.397518390093</v>
+        <v>2078.397518390099</v>
       </c>
       <c r="U18" t="n">
-        <v>1880.093051326677</v>
+        <v>1859.902725988409</v>
       </c>
       <c r="V18" t="n">
-        <v>1651.697428775011</v>
+        <v>1631.507103436743</v>
       </c>
       <c r="W18" t="n">
-        <v>1410.381560008321</v>
+        <v>1390.191234670053</v>
       </c>
       <c r="X18" t="n">
-        <v>1212.464571886115</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.943245535694</v>
+        <v>999.7529201974263</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232844</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158867</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232844</v>
+        <v>53.49864670158867</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697185</v>
+        <v>87.10283444623208</v>
       </c>
       <c r="L19" t="n">
-        <v>183.8045947072314</v>
+        <v>187.7099138464916</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348331</v>
+        <v>305.7034199740933</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844334</v>
+        <v>424.1257617236937</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193834</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475212</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475212</v>
       </c>
       <c r="R19" t="n">
-        <v>585.557891947518</v>
+        <v>585.5578919475212</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046118</v>
+        <v>544.5792654046145</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736967</v>
+        <v>484.1314482736991</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162028</v>
+        <v>369.6723448162048</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280316</v>
+        <v>281.6681764280332</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988369</v>
+        <v>168.2429109988381</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476188</v>
+        <v>109.7215829476197</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330208</v>
+        <v>60.41756019330257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951884</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187272</v>
+        <v>916.6170176187295</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782402</v>
+        <v>694.5624337782419</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418167</v>
+        <v>453.1423791418183</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494109</v>
+        <v>209.7695286494118</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012623</v>
+        <v>49.6793903001259</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J20" t="n">
-        <v>153.8888005385777</v>
+        <v>290.8856582810772</v>
       </c>
       <c r="K20" t="n">
-        <v>394.0291725833604</v>
+        <v>531.0260303258599</v>
       </c>
       <c r="L20" t="n">
-        <v>741.9145456683067</v>
+        <v>878.9114034108061</v>
       </c>
       <c r="M20" t="n">
-        <v>1304.447498367338</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N20" t="n">
-        <v>1682.778857055054</v>
+        <v>1819.775714797553</v>
       </c>
       <c r="O20" t="n">
-        <v>1987.783441527888</v>
+        <v>2124.780299270386</v>
       </c>
       <c r="P20" t="n">
-        <v>2385.234124429884</v>
+        <v>2385.23412442989</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.666378116421</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116421</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800187</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584599</v>
+        <v>2413.540728584604</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528351999</v>
+        <v>2331.386528352004</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301346</v>
+        <v>2167.138390301351</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212353</v>
+        <v>1977.334596212358</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787253</v>
+        <v>1768.035591787257</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416497</v>
+        <v>1547.224872416501</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161654</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571201</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473321</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524105</v>
+        <v>392.7631577042034</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022848</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722674</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J21" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3380266556233</v>
+        <v>279.0838801225172</v>
       </c>
       <c r="L21" t="n">
-        <v>705.1598718257389</v>
+        <v>631.2998786376369</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147863</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270979</v>
+        <v>1627.598878270985</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.79882905513</v>
+        <v>2019.798829055136</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330827</v>
+        <v>2321.894748330833</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116421</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211367</v>
+        <v>2419.882109211373</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224107</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.397518390093</v>
+        <v>2078.397518390099</v>
       </c>
       <c r="U21" t="n">
-        <v>1859.902725988403</v>
+        <v>1859.902725988409</v>
       </c>
       <c r="V21" t="n">
-        <v>1631.507103436737</v>
+        <v>1631.507103436743</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670053</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974263</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="D22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="E22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="F22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="G22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="H22" t="n">
-        <v>49.59332756232843</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158549</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158549</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="K22" t="n">
-        <v>87.1028344462289</v>
+        <v>83.19751530697197</v>
       </c>
       <c r="L22" t="n">
-        <v>187.7099138464884</v>
+        <v>183.8045947072315</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740901</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236905</v>
+        <v>424.1257617236943</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193802</v>
+        <v>522.5894082193839</v>
       </c>
       <c r="P22" t="n">
-        <v>585.557891947518</v>
+        <v>585.5578919475217</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.557891947518</v>
+        <v>585.5578919475217</v>
       </c>
       <c r="R22" t="n">
-        <v>585.557891947518</v>
+        <v>585.5578919475217</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046118</v>
+        <v>544.5792654046151</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736967</v>
+        <v>484.1314482736996</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162028</v>
+        <v>369.6723448162052</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280316</v>
+        <v>281.6681764280335</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988369</v>
+        <v>168.2429109988384</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476188</v>
+        <v>109.7215829476199</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330207</v>
+        <v>60.41756019330266</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951883</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.709846338097</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187268</v>
+        <v>916.6170176187293</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782398</v>
+        <v>694.5624337782418</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418163</v>
+        <v>453.1423791418179</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494104</v>
+        <v>209.7695286494115</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012621</v>
+        <v>49.67939030012682</v>
       </c>
       <c r="I23" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K23" t="n">
-        <v>394.0291725833591</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L23" t="n">
-        <v>741.9145456683053</v>
+        <v>830.7491302710278</v>
       </c>
       <c r="M23" t="n">
-        <v>1304.447498367337</v>
+        <v>1223.988296524116</v>
       </c>
       <c r="N23" t="n">
-        <v>1682.778857055052</v>
+        <v>1771.613441657774</v>
       </c>
       <c r="O23" t="n">
-        <v>2157.07722797383</v>
+        <v>2076.618026130608</v>
       </c>
       <c r="P23" t="n">
-        <v>2385.234124429883</v>
+        <v>2304.774922586661</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.66637811642</v>
+        <v>2399.207176273198</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.66637811642</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.16853880018</v>
+        <v>2465.168538800187</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584598</v>
+        <v>2413.540728584604</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528351998</v>
+        <v>2331.386528352003</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301345</v>
+        <v>2167.138390301351</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212353</v>
+        <v>1977.334596212358</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787252</v>
+        <v>1768.035591787257</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416496</v>
+        <v>1547.2248724165</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>840.3334774161581</v>
+        <v>840.3334774161654</v>
       </c>
       <c r="C24" t="n">
-        <v>678.6298046571128</v>
+        <v>678.6298046571201</v>
       </c>
       <c r="D24" t="n">
-        <v>539.7911676473249</v>
+        <v>539.7911676473321</v>
       </c>
       <c r="E24" t="n">
-        <v>392.7631577041961</v>
+        <v>392.7631577042034</v>
       </c>
       <c r="F24" t="n">
-        <v>258.0693596540705</v>
+        <v>258.0693596540777</v>
       </c>
       <c r="G24" t="n">
-        <v>129.340859677355</v>
+        <v>217.9134703255695</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722674</v>
+        <v>117.9756128722676</v>
       </c>
       <c r="I24" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J24" t="n">
-        <v>49.5933275623284</v>
+        <v>109.8474740954347</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556234</v>
       </c>
       <c r="L24" t="n">
-        <v>644.9057252926327</v>
+        <v>631.2998786376369</v>
       </c>
       <c r="M24" t="n">
-        <v>1129.939078802859</v>
+        <v>1116.333232147863</v>
       </c>
       <c r="N24" t="n">
-        <v>1641.204724925981</v>
+        <v>1627.598878270985</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.404675710132</v>
+        <v>2019.798829055136</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330826</v>
+        <v>2321.894748330833</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.66637811642</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211366</v>
+        <v>2419.882109211373</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224106</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390092</v>
+        <v>2078.397518390099</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988402</v>
+        <v>1859.902725988409</v>
       </c>
       <c r="V24" t="n">
-        <v>1631.507103436736</v>
+        <v>1631.507103436743</v>
       </c>
       <c r="W24" t="n">
-        <v>1390.191234670046</v>
+        <v>1390.191234670053</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.27424654784</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.752920197419</v>
+        <v>999.7529201974263</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="C25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="D25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="E25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="F25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="G25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="H25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="I25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="J25" t="n">
-        <v>49.5933275623284</v>
+        <v>49.59332756232855</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697181</v>
+        <v>83.19751530697197</v>
       </c>
       <c r="L25" t="n">
-        <v>183.8045947072313</v>
+        <v>183.8045947072315</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7981008348331</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844334</v>
+        <v>420.2204425844336</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6840890801232</v>
+        <v>518.6840890801233</v>
       </c>
       <c r="P25" t="n">
-        <v>581.652572808261</v>
+        <v>581.6525728082611</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475217</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475179</v>
+        <v>585.5578919475217</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046116</v>
+        <v>544.5792654046151</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736967</v>
+        <v>484.1314482736996</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162027</v>
+        <v>369.6723448162052</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280315</v>
+        <v>281.6681764280335</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988368</v>
+        <v>168.2429109988384</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476188</v>
+        <v>109.7215829476199</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330204</v>
+        <v>60.41756019330266</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1422.858215795353</v>
+        <v>1427.753382727406</v>
       </c>
       <c r="C26" t="n">
         <v>1160.39554881598</v>
@@ -6227,7 +6227,7 @@
         <v>245.1314844327526</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306618</v>
+        <v>597.567720330662</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
@@ -6248,25 +6248,25 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341008</v>
+        <v>3041.853815341009</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
         <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683666</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
-        <v>2496.704982335374</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
-        <v>2248.745976948741</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.291761226001</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y26" t="n">
         <v>1702.325830557606</v>
@@ -6294,7 +6294,7 @@
         <v>357.8857190467766</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>229.1572190700612</v>
       </c>
       <c r="H27" t="n">
         <v>129.2193616167592</v>
@@ -6336,19 +6336,19 @@
         <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901138</v>
+        <v>358.4785731901139</v>
       </c>
       <c r="C28" t="n">
         <v>303.4385284075605</v>
@@ -6382,25 +6382,25 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219774</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197474</v>
+        <v>260.1708922197475</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731336</v>
+        <v>473.0738354731337</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538622</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565889</v>
+        <v>934.081411056589</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.630684586276</v>
@@ -6409,25 +6409,25 @@
         <v>1359.684827956421</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321871</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463762</v>
+        <v>823.174267246376</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195416</v>
       </c>
       <c r="X28" t="n">
         <v>534.9172511706838</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187272</v>
+        <v>427.4580171187273</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1635.820677939472</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1368.462844028046</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="D29" t="n">
-        <v>1110.214804011036</v>
+        <v>897.2523418669159</v>
       </c>
       <c r="E29" t="n">
-        <v>830.0050088729098</v>
+        <v>617.0425467287891</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792276</v>
+        <v>362.3651380968658</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682011</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327524</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306617</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6482,31 +6482,31 @@
         <v>2811.664418550932</v>
       </c>
       <c r="Q29" t="n">
-        <v>3018.392536090596</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R29" t="n">
         <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>3041.853815341008</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2932.070793827786</v>
+        <v>2859.417743213905</v>
       </c>
       <c r="U29" t="n">
-        <v>2932.070793827786</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2709.667444479493</v>
+        <v>2496.704982335373</v>
       </c>
       <c r="W29" t="n">
-        <v>2461.708439092861</v>
+        <v>2248.74597694874</v>
       </c>
       <c r="X29" t="n">
-        <v>2194.254223370121</v>
+        <v>1981.291761226</v>
       </c>
       <c r="Y29" t="n">
-        <v>1915.288292701725</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J30" t="n">
         <v>121.0912228399263</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901144</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075607</v>
+        <v>303.438528407561</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910901</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081751</v>
+        <v>227.5094705081753</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I31" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219784</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197483</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731344</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538623</v>
+        <v>703.3632054538627</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565898</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405406</v>
       </c>
       <c r="P31" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986671</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586278</v>
       </c>
       <c r="R31" t="n">
         <v>1359.684827956422</v>
@@ -6649,22 +6649,22 @@
         <v>1260.550990115876</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.947961687322</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321878</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463768</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195423</v>
       </c>
       <c r="X31" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706844</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187279</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.53631811171</v>
+        <v>1542.536318111712</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.68406251236</v>
+        <v>1303.684062512363</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807427</v>
+        <v>1073.941600807429</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813777</v>
+        <v>822.237383981379</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593914</v>
+        <v>551.1676963593926</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814226</v>
+        <v>278.1452128814237</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657552</v>
+        <v>88.40544154657587</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321496</v>
+        <v>58.66974582321507</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528139</v>
+        <v>270.9024712528138</v>
       </c>
       <c r="K32" t="n">
-        <v>651.27702445439</v>
+        <v>651.2770244543897</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.39657869613</v>
+        <v>1139.396578696129</v>
       </c>
       <c r="M32" t="n">
         <v>1532.635744949217</v>
       </c>
       <c r="N32" t="n">
-        <v>2051.201284793727</v>
+        <v>2051.201284793726</v>
       </c>
       <c r="O32" t="n">
-        <v>2496.440050423354</v>
+        <v>2496.440050423353</v>
       </c>
       <c r="P32" t="n">
-        <v>2787.655440920132</v>
+        <v>2724.596946879406</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606669</v>
+        <v>2882.087694606674</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160748</v>
+        <v>2933.487291160753</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858945</v>
+        <v>2889.33981885895</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.0623756578</v>
+        <v>2808.062375657805</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.258542439637</v>
+        <v>2696.258542439642</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403422</v>
+        <v>2502.360771403426</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328867</v>
+        <v>2282.907344328871</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918204</v>
+        <v>2043.958706918207</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561885</v>
+        <v>1793.498354561888</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>112.3394136730496</v>
+        <v>127.0520311331541</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321496</v>
+        <v>58.66974582321507</v>
       </c>
       <c r="J33" t="n">
-        <v>118.9238923563211</v>
+        <v>118.9238923563212</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4144449165098</v>
+        <v>348.4144449165099</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866253</v>
+        <v>714.2362900866256</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219695</v>
+        <v>156.7721945219715</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514933</v>
+        <v>130.2377280514949</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470994</v>
+        <v>120.2473379471009</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762617</v>
+        <v>111.3198267762629</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698823</v>
+        <v>101.9206748698832</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557573</v>
+        <v>76.08242930557637</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269299</v>
+        <v>59.79128715269336</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321496</v>
+        <v>58.66974582321507</v>
       </c>
       <c r="J34" t="n">
-        <v>58.66974582321496</v>
+        <v>140.0418274420389</v>
       </c>
       <c r="K34" t="n">
-        <v>92.27393356785836</v>
+        <v>297.6848624513615</v>
       </c>
       <c r="L34" t="n">
-        <v>333.1151941249112</v>
+        <v>398.291941851621</v>
       </c>
       <c r="M34" t="n">
-        <v>451.108700252513</v>
+        <v>656.5196291360159</v>
       </c>
       <c r="N34" t="n">
-        <v>569.5310420021133</v>
+        <v>774.9419708856162</v>
       </c>
       <c r="O34" t="n">
-        <v>770.9418844780276</v>
+        <v>873.4056173813059</v>
       </c>
       <c r="P34" t="n">
-        <v>833.9103682061655</v>
+        <v>936.3741011094437</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094395</v>
+        <v>936.3741011094437</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916611</v>
+        <v>929.9338227916651</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631921</v>
+        <v>859.3055632631958</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467144</v>
+        <v>769.2081131467179</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036576</v>
+        <v>625.0993767036609</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299237</v>
+        <v>507.4455753299267</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151662</v>
+        <v>364.3706769151689</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783854</v>
+        <v>276.1997158783878</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385059</v>
+        <v>197.2460601385081</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927305</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687091</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109513</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582347</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7038,22 +7038,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
         <v>1267.641586535707</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F37" t="n">
         <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672917</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
         <v>527.7073651707066</v>
@@ -7181,7 +7181,7 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
         <v>1811.631037687489</v>
@@ -7190,10 +7190,10 @@
         <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7345,7 +7345,7 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
         <v>629.3786802696717</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.683981160803</v>
+        <v>1315.263619900707</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.729334917136</v>
+        <v>1095.30897365704</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8844825678857</v>
+        <v>884.4641213077897</v>
       </c>
       <c r="E41" t="n">
-        <v>739.0778750975185</v>
+        <v>728.2397887298407</v>
       </c>
       <c r="F41" t="n">
-        <v>486.9057968312147</v>
+        <v>476.0677104635369</v>
       </c>
       <c r="G41" t="n">
-        <v>232.7809227089286</v>
+        <v>221.9428363412507</v>
       </c>
       <c r="H41" t="n">
-        <v>61.9387607297638</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,22 +7415,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>869.8806918509182</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M41" t="n">
         <v>1390.352896714849</v>
       </c>
       <c r="N41" t="n">
-        <v>1768.684255402564</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961696</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.601464417749</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7439,22 +7439,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.783855158167</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2436.877631295687</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2261.877469615154</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W41" t="n">
-        <v>2061.321651896281</v>
+        <v>1998.941818050818</v>
       </c>
       <c r="X41" t="n">
-        <v>1841.2706238413</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y41" t="n">
-        <v>1634.748408255296</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550358</v>
+        <v>65.67816768550382</v>
       </c>
       <c r="C43" t="n">
-        <v>58.0413105707098</v>
+        <v>58.04131057070992</v>
       </c>
       <c r="D43" t="n">
-        <v>58.0413105707098</v>
+        <v>58.04131057070992</v>
       </c>
       <c r="E43" t="n">
-        <v>58.0413105707098</v>
+        <v>58.04131057070992</v>
       </c>
       <c r="F43" t="n">
-        <v>58.0413105707098</v>
+        <v>58.04131057070992</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>289.8109430087057</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.8044491363074</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859078</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373815975</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097364</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097364</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097353</v>
+        <v>687.6589211097364</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369487</v>
+        <v>635.9282709369497</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761534</v>
+        <v>564.7284301761543</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887793</v>
+        <v>439.5173030887801</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707278</v>
+        <v>340.7611110707285</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116528</v>
+        <v>216.5838220116534</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305545</v>
+        <v>147.3104703305549</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635749</v>
+        <v>87.25442394635785</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1402.683981160803</v>
+        <v>1315.263619900707</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.729334917136</v>
+        <v>1095.30897365704</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8844825678857</v>
+        <v>884.4641213077903</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0778750975185</v>
+        <v>651.6575138374229</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312147</v>
+        <v>399.4854355711191</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089286</v>
+        <v>232.7809227089289</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976381</v>
+        <v>61.93876072976393</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>281.854946721189</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>521.9953187659718</v>
       </c>
       <c r="L44" t="n">
-        <v>869.8806918509182</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M44" t="n">
         <v>1421.875586190304</v>
@@ -7661,13 +7661,13 @@
         <v>1800.206944878019</v>
       </c>
       <c r="O44" t="n">
-        <v>2105.211529350853</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P44" t="n">
-        <v>2390.680320934166</v>
+        <v>2390.680320934167</v>
       </c>
       <c r="Q44" t="n">
-        <v>2485.112574620703</v>
+        <v>2485.112574620704</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,10 +7688,10 @@
         <v>1998.941818050818</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995838</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.328046995202</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
@@ -7725,13 +7725,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K45" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.6781676855036</v>
+        <v>58.73753147687964</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057070981</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070981</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070981</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070981</v>
+        <v>58.04131057070992</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7816,40 +7816,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859078</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373815975</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>687.6589211097353</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097353</v>
+        <v>680.7182849011123</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097353</v>
+        <v>680.7182849011123</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369487</v>
+        <v>628.9876347283256</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761534</v>
+        <v>557.7877939675302</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887793</v>
+        <v>432.5766668801559</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707278</v>
+        <v>333.8204748621043</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116528</v>
+        <v>209.6431858030292</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305545</v>
+        <v>140.3698341219308</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635749</v>
+        <v>80.31378773773366</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>461.2790889106781</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>406.4525226329088</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>592.0117604994512</v>
+        <v>556.5689907174631</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8225,10 +8225,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>461.2790889106749</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>460.4941251124334</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8298,13 +8298,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>433.7347283243275</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876337</v>
+        <v>604.926711287635</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.7427534864306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>448.8511326829348</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>269.1987543909911</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343923</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>269.1987543909911</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>591.6733034255091</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>591.6733034255091</v>
       </c>
       <c r="N18" t="n">
-        <v>609.4018071971233</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>468.3491694450061</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>548.5390329212573</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>407.4863951691412</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>400.2583197824201</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828750005</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10908,7 +10908,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.416582875</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24.23157966377645</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
-        <v>12.58802666965281</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146303</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.01884979421321</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548094</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>121.2732179677433</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4.846215262732612</v>
       </c>
       <c r="C26" t="n">
-        <v>4.846215262732372</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>255.6655596168399</v>
@@ -24689,16 +24689,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>107.3377986519772</v>
+        <v>44.44887872911912</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508326</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>75.81645214349416</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.7297055040014</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700828</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.79012214048552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.54615764749357</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>86.54615764749539</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674233.4405133529</v>
+        <v>674233.440513353</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674233.4405133529</v>
+        <v>674233.440513353</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617250.5097916177</v>
+        <v>617250.509791618</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617250.5097916177</v>
+        <v>617250.5097916181</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654312.7560884532</v>
+        <v>654312.756088453</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669984.4683056009</v>
+        <v>669984.4683056008</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.6544447632</v>
       </c>
       <c r="C2" t="n">
+        <v>690861.6544447632</v>
+      </c>
+      <c r="D2" t="n">
+        <v>690861.6544447634</v>
+      </c>
+      <c r="E2" t="n">
+        <v>628993.0002849246</v>
+      </c>
+      <c r="F2" t="n">
+        <v>628993.0002849245</v>
+      </c>
+      <c r="G2" t="n">
         <v>690861.6544447637</v>
       </c>
-      <c r="D2" t="n">
-        <v>690861.6544447633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>628993.0002849244</v>
-      </c>
-      <c r="F2" t="n">
-        <v>628993.0002849237</v>
-      </c>
-      <c r="G2" t="n">
-        <v>690861.6544447639</v>
-      </c>
       <c r="H2" t="n">
-        <v>690861.6544447637</v>
+        <v>690861.6544447638</v>
       </c>
       <c r="I2" t="n">
-        <v>690861.6544447634</v>
+        <v>690861.6544447638</v>
       </c>
       <c r="J2" t="n">
-        <v>668067.9100692106</v>
+        <v>668067.9100692113</v>
       </c>
       <c r="K2" t="n">
-        <v>668067.9100692109</v>
+        <v>668067.9100692101</v>
       </c>
       <c r="L2" t="n">
-        <v>690861.6544447652</v>
+        <v>690861.6544447653</v>
       </c>
       <c r="M2" t="n">
-        <v>690861.6544447631</v>
+        <v>690861.6544447629</v>
       </c>
       <c r="N2" t="n">
-        <v>690861.6544447626</v>
+        <v>690861.654444763</v>
       </c>
       <c r="O2" t="n">
         <v>684661.4877108972</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.156046812</v>
+        <v>166962.1560468123</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528546</v>
+        <v>8415.473351528122</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.61014058</v>
+        <v>118993.6101405804</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773073</v>
+        <v>46058.9273477304</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.5155937559</v>
+        <v>211812.5155937561</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089574</v>
+        <v>68635.34537089524</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423355</v>
+        <v>19582.70168423369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430324</v>
+        <v>40069.4099843035</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214830.1977547242</v>
+        <v>214830.197754724</v>
       </c>
       <c r="C4" t="n">
-        <v>214830.1977547242</v>
+        <v>214830.1977547238</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
-        <v>161512.4500031762</v>
+        <v>161512.4500031763</v>
       </c>
       <c r="F4" t="n">
-        <v>161512.4500031762</v>
+        <v>161512.4500031763</v>
       </c>
       <c r="G4" t="n">
-        <v>200499.9663201624</v>
+        <v>200499.9663201623</v>
       </c>
       <c r="H4" t="n">
-        <v>200499.9663201624</v>
+        <v>200499.9663201622</v>
       </c>
       <c r="I4" t="n">
-        <v>200499.9663201623</v>
+        <v>200499.9663201622</v>
       </c>
       <c r="J4" t="n">
         <v>185256.1270820845</v>
       </c>
       <c r="K4" t="n">
-        <v>185256.1270820845</v>
+        <v>185256.1270820844</v>
       </c>
       <c r="L4" t="n">
-        <v>199459.6276210468</v>
+        <v>199459.6276210469</v>
       </c>
       <c r="M4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="N4" t="n">
         <v>198982.8504522114</v>
       </c>
       <c r="O4" t="n">
-        <v>195068.9606019818</v>
+        <v>195068.9606019817</v>
       </c>
       <c r="P4" t="n">
-        <v>195068.9606019818</v>
+        <v>195068.9606019817</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937146</v>
+        <v>63918.8634693715</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937146</v>
+        <v>63918.86346937154</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147921</v>
+        <v>47226.8895314793</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147921</v>
+        <v>47226.8895314793</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.04948547468</v>
+        <v>52067.04948547474</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547466</v>
+        <v>52067.04948547472</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547465</v>
+        <v>52067.04948547472</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729293</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823979</v>
+        <v>56497.43851823985</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52317.76029749522</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.76029749523</v>
+        <v>52317.76029749522</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245150.4371738557</v>
+        <v>245150.4371738554</v>
       </c>
       <c r="C6" t="n">
-        <v>412112.593220668</v>
+        <v>412112.5932206678</v>
       </c>
       <c r="D6" t="n">
-        <v>408697.0393614998</v>
+        <v>408697.0393615003</v>
       </c>
       <c r="E6" t="n">
-        <v>301260.050609689</v>
+        <v>301088.1932370224</v>
       </c>
       <c r="F6" t="n">
-        <v>420253.6607502683</v>
+        <v>420081.8033776026</v>
       </c>
       <c r="G6" t="n">
-        <v>392235.7112913961</v>
+        <v>392235.7112913963</v>
       </c>
       <c r="H6" t="n">
-        <v>438294.6386391266</v>
+        <v>438294.638639127</v>
       </c>
       <c r="I6" t="n">
-        <v>438294.6386391264</v>
+        <v>438294.6386391269</v>
       </c>
       <c r="J6" t="n">
-        <v>215227.1288160773</v>
+        <v>215163.812859479</v>
       </c>
       <c r="K6" t="n">
-        <v>427039.6444098335</v>
+        <v>426976.328453234</v>
       </c>
       <c r="L6" t="n">
-        <v>366269.2429345829</v>
+        <v>366269.2429345833</v>
       </c>
       <c r="M6" t="n">
-        <v>419493.2854156718</v>
+        <v>419493.2854156714</v>
       </c>
       <c r="N6" t="n">
-        <v>439075.9870999049</v>
+        <v>439075.9870999052</v>
       </c>
       <c r="O6" t="n">
-        <v>397205.3568271169</v>
+        <v>397188.1341417449</v>
       </c>
       <c r="P6" t="n">
-        <v>437274.7668114202</v>
+        <v>437257.5441260484</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H2" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="3">
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.211570219926</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199267</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291055</v>
+        <v>619.9165945291069</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291055</v>
+        <v>619.9165945291069</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291055</v>
+        <v>619.9165945291069</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291053</v>
+        <v>619.9165945291069</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291051</v>
+        <v>619.9165945291069</v>
       </c>
       <c r="J4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352522</v>
       </c>
       <c r="K4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="L4" t="n">
-        <v>733.371822790187</v>
+        <v>733.3718227901883</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26917,10 +26917,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466341</v>
+        <v>57.573659184663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354533</v>
+        <v>55.85650632354577</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361968</v>
+        <v>85.79418171361905</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529194</v>
+        <v>24.47837710529211</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037905</v>
+        <v>50.08676248037938</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.211570219926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506501</v>
+        <v>27.09163104506365</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411519</v>
+        <v>94.61339326411655</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260723</v>
+        <v>638.7584295260715</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466341</v>
+        <v>57.573659184663</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354533</v>
+        <v>55.85650632354577</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199253</v>
+        <v>498.211570219926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506501</v>
+        <v>27.09163104506365</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411519</v>
+        <v>94.61339326411655</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>222.0971058594813</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>79.85152081930232</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>1.264066385707537</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>59.07154621610954</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>4.648443580871913</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>217.3667874383739</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>301.7251799025785</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>282.7912730479657</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27701,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>165.7857650088843</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16.20368735083704</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,10 +27780,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>99.1869486781861</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27792,7 +27792,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>129.1404950786512</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.69800326775939</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>151.4202351459296</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27989,13 +27989,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>77.01947232901799</v>
       </c>
       <c r="X9" t="n">
-        <v>68.66423876350471</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>84.69768482647865</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28065,10 +28065,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28111,31 +28111,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>10.64205129852382</v>
+        <v>34.34031316763264</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="P11" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.68688454173042</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>87.68688454172514</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28351,28 +28351,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34.34031316763253</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="O14" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10.64205129852388</v>
-      </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28412,10 +28412,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>87.68688454173042</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>19.98842208488553</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082095</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q16" t="n">
         <v>113.4301655082087</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="P17" t="n">
-        <v>171.0038246928721</v>
+        <v>32.62316030651556</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.62316030650945</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>19.98842208488551</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>19.9884220848906</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>146.7057807606817</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,28 +28767,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790959</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="F20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="G20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="J20" t="n">
-        <v>32.62316030650868</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,16 +28831,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>171.0038246928721</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>171.0038246928721</v>
+        <v>32.62316030651601</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>19.98842208488553</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>87.68688454173116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>146.7057807606786</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.944766807334062</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="23">
@@ -29035,46 +29035,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="F23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="G23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>32.62316030650729</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>122.3550639456208</v>
       </c>
       <c r="M23" t="n">
-        <v>171.0038246928721</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="O23" t="n">
-        <v>171.0038246928721</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="S23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>87.68688454172511</v>
       </c>
       <c r="H24" t="n">
-        <v>87.68688454173218</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>42.09673474018184</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790958</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0038246928721</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="26">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082084</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082096</v>
       </c>
       <c r="K31" t="n">
         <v>113.4301655082087</v>
@@ -29700,7 +29700,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M31" t="n">
-        <v>113.430165508209</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N31" t="n">
         <v>113.4301655082087</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="C32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="D32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="E32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="F32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="G32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="H32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="I32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="J32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="K32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="L32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="O32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="P32" t="n">
-        <v>63.69544852598432</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>63.69544852599108</v>
       </c>
       <c r="R32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="S32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="T32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="U32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="V32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="W32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="X32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550343</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550331</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="C34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="D34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="E34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="F34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="G34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="H34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="I34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>125.2917649138174</v>
       </c>
       <c r="L34" t="n">
-        <v>141.650688037165</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>103.9870666466916</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.650688037165</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="S34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="T34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="U34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="V34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="W34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="X34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.650688037165</v>
+        <v>141.6506880371647</v>
       </c>
     </row>
     <row r="35">
@@ -30010,14 +30010,14 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>40.5815716293499</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="M35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>116.9787331327009</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>116.9787331327003</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,16 +30487,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="M41" t="n">
-        <v>128.5182208190328</v>
+        <v>128.5182208190336</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="O41" t="n">
-        <v>160.3593212992907</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.5545469714314</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>105.5545469714325</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30666,25 +30666,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>160.3593212992907</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>57.89080315884831</v>
       </c>
       <c r="P44" t="n">
-        <v>57.89080315884814</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,10 +30864,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695556</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>105.5545469714313</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>136.6957712592054</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992907</v>
+        <v>160.3593212992905</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>274.880974738448</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>218.5757135817523</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>485.2966194317429</v>
+        <v>449.8538496497547</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34945,10 +34945,10 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>274.8809747384448</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>273.5393283323129</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35018,13 +35018,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>321.1592947531798</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199253</v>
+        <v>498.2115702199267</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0075620415381</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>333.3672301212949</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>407.853330342047</v>
+        <v>431.5515922111558</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O11" t="n">
-        <v>421.5156043696571</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>157.2025852243245</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35501,7 +35501,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>321.5555127232812</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
@@ -35647,28 +35647,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606796</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>431.5515922111557</v>
       </c>
       <c r="N14" t="n">
-        <v>495.5830530715579</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696571</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.0281661334097</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910352</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>157.2025852243245</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>476.1894008638692</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265305</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>553.1567122562213</v>
+        <v>553.156712256221</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543202</v>
       </c>
       <c r="P17" t="n">
-        <v>401.465336264643</v>
+        <v>263.0846718782865</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.0092751413953</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>476.1894008638692</v>
       </c>
       <c r="N18" t="n">
-        <v>502.686666129415</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.944766807333449</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.94476680733032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.348962602272</v>
+        <v>243.7296269886349</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,16 +36127,16 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>568.2151037363953</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562209</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.465336264643</v>
+        <v>263.0846718782869</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>355.7737358738582</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>441.823891853549</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.944766807330363</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271324</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36358,19 +36358,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>275.1891926749747</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>473.7544306980917</v>
       </c>
       <c r="M23" t="n">
-        <v>568.2151037363953</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562209</v>
       </c>
       <c r="O23" t="n">
-        <v>479.0892635543206</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.27192105376648</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>294.9109615979934</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>291.4041137582768</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.944766807333995</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807330205</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>464.8295322606797</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M29" t="n">
         <v>510.6414445517319</v>
       </c>
       <c r="N29" t="n">
-        <v>495.583053071558</v>
+        <v>495.5830530715579</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q29" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910322</v>
+        <v>23.6982618691035</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.9734993082406</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
       </c>
       <c r="L31" t="n">
-        <v>215.0534780337234</v>
+        <v>215.0534780337233</v>
       </c>
       <c r="M31" t="n">
-        <v>232.6155252330592</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536084</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329283</v>
+        <v>214.376490332928</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056321</v>
       </c>
       <c r="L32" t="n">
-        <v>493.050054789636</v>
+        <v>493.0500547896357</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8035756005143</v>
+        <v>523.803575600514</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986134</v>
+        <v>449.7361268986132</v>
       </c>
       <c r="P32" t="n">
-        <v>294.1569600977552</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>159.0815633608769</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805981</v>
+        <v>51.91878439805956</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.19402183719575</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>159.2353888983057</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2740005626796</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>260.836047762015</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>203.4452954302165</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4987201043171</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978173</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
@@ -37321,13 +37321,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>489.9326803133606</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>347.4402447044718</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675862</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
         <v>516.4299455789112</v>
@@ -37713,10 +37713,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>511.7586880517616</v>
+        <v>511.7586880517615</v>
       </c>
       <c r="M41" t="n">
-        <v>525.7294998625559</v>
+        <v>525.7294998625567</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626398</v>
       </c>
       <c r="O41" t="n">
-        <v>468.4447601607391</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>207.177859496946</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37953,7 +37953,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>169.1590759897535</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>233.0851235950538</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>511.7586880517616</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>557.5706003428138</v>
+        <v>557.5706003428137</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>365.9762420202968</v>
       </c>
       <c r="P44" t="n">
-        <v>288.3523147306191</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.62741766018547</v>
+        <v>70.62741766018536</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.010743645074934</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>225.1730739912297</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>98.54380332635755</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
